--- a/source/dataset/data.xlsx
+++ b/source/dataset/data.xlsx
@@ -455,13 +455,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="topLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.424285714285714" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" ht="13.8" customHeight="1" s="1">
       <c r="A1" s="0" t="inlineStr">
@@ -505,111 +505,148 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="1">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>1737916541</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="1">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>1011231617</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>talk</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>5350492605</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="1">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="1"/>
+    <row r="6" ht="13.8" customHeight="1" s="1"/>
+    <row r="7" ht="13.8" customHeight="1" s="1"/>
+    <row r="8" ht="13.8" customHeight="1" s="1"/>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>5350492605</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>talk</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>1011231617</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1011231617</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>talk</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1737916541</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
